--- a/PLC/资料.xlsx
+++ b/PLC/资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13620" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="上料机IO表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="559">
   <si>
     <t>AVI设备_I/O表（PLC）</t>
   </si>
@@ -584,6 +584,21 @@
     <t>rad/min</t>
   </si>
   <si>
+    <t>底部直线电机</t>
+  </si>
+  <si>
+    <t>mm/s</t>
+  </si>
+  <si>
+    <t>相机上下轴</t>
+  </si>
+  <si>
+    <t>旋转相机轴</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
     <t>M0</t>
   </si>
   <si>
@@ -707,6 +722,9 @@
     <t>M103</t>
   </si>
   <si>
+    <t>闪绿</t>
+  </si>
+  <si>
     <t>M403</t>
   </si>
   <si>
@@ -740,6 +758,9 @@
     <t>M104</t>
   </si>
   <si>
+    <t>闪黄</t>
+  </si>
+  <si>
     <t>M404</t>
   </si>
   <si>
@@ -770,6 +791,9 @@
     <t>M105</t>
   </si>
   <si>
+    <t>常黄</t>
+  </si>
+  <si>
     <t>M405</t>
   </si>
   <si>
@@ -803,6 +827,9 @@
     <t>M106</t>
   </si>
   <si>
+    <t>长红</t>
+  </si>
+  <si>
     <t>M406</t>
   </si>
   <si>
@@ -926,6 +953,9 @@
     <t>D4010</t>
   </si>
   <si>
+    <t>轴2调试频率</t>
+  </si>
+  <si>
     <t>D4110</t>
   </si>
   <si>
@@ -944,6 +974,9 @@
     <t>M411</t>
   </si>
   <si>
+    <t>【上位机】轴2GO</t>
+  </si>
+  <si>
     <t>D4011</t>
   </si>
   <si>
@@ -968,9 +1001,15 @@
     <t>M412</t>
   </si>
   <si>
+    <t>【上位机】轴3GO</t>
+  </si>
+  <si>
     <t>D4012</t>
   </si>
   <si>
+    <t>轴3调试频率</t>
+  </si>
+  <si>
     <t>D4112</t>
   </si>
   <si>
@@ -992,6 +1031,9 @@
     <t>M413</t>
   </si>
   <si>
+    <t>【上位机】轴4GO</t>
+  </si>
+  <si>
     <t>D4013</t>
   </si>
   <si>
@@ -1016,9 +1058,18 @@
     <t>M114</t>
   </si>
   <si>
+    <t>M414</t>
+  </si>
+  <si>
+    <t>【上位机】轴9GO</t>
+  </si>
+  <si>
     <t>D4014</t>
   </si>
   <si>
+    <t>轴4调试频率</t>
+  </si>
+  <si>
     <t>D4114</t>
   </si>
   <si>
@@ -1034,6 +1085,9 @@
     <t>M115</t>
   </si>
   <si>
+    <t>M415</t>
+  </si>
+  <si>
     <t>D4015</t>
   </si>
   <si>
@@ -1052,9 +1106,15 @@
     <t>M116</t>
   </si>
   <si>
+    <t>M416</t>
+  </si>
+  <si>
     <t>D4016</t>
   </si>
   <si>
+    <t>轴9调试频率</t>
+  </si>
+  <si>
     <t>D4116</t>
   </si>
   <si>
@@ -1070,6 +1130,9 @@
     <t>M117</t>
   </si>
   <si>
+    <t>M417</t>
+  </si>
+  <si>
     <t>D4017</t>
   </si>
   <si>
@@ -1088,6 +1151,9 @@
     <t>M118</t>
   </si>
   <si>
+    <t>M418</t>
+  </si>
+  <si>
     <t>D4018</t>
   </si>
   <si>
@@ -1109,6 +1175,9 @@
     <t>M119</t>
   </si>
   <si>
+    <t>M419</t>
+  </si>
+  <si>
     <t>D4019</t>
   </si>
   <si>
@@ -1130,6 +1199,12 @@
     <t>M120</t>
   </si>
   <si>
+    <t>M420</t>
+  </si>
+  <si>
+    <t>【上位机】消音</t>
+  </si>
+  <si>
     <t>D4020</t>
   </si>
   <si>
@@ -1151,6 +1226,9 @@
     <t>M121</t>
   </si>
   <si>
+    <t>M421</t>
+  </si>
+  <si>
     <t>D4021</t>
   </si>
   <si>
@@ -1169,6 +1247,9 @@
     <t>M122</t>
   </si>
   <si>
+    <t>M422</t>
+  </si>
+  <si>
     <t>D4022</t>
   </si>
   <si>
@@ -1193,6 +1274,9 @@
     <t>M123</t>
   </si>
   <si>
+    <t>M423</t>
+  </si>
+  <si>
     <t>D4023</t>
   </si>
   <si>
@@ -1211,6 +1295,9 @@
     <t>M124</t>
   </si>
   <si>
+    <t>M424</t>
+  </si>
+  <si>
     <t>D4024</t>
   </si>
   <si>
@@ -1232,6 +1319,9 @@
     <t>M125</t>
   </si>
   <si>
+    <t>M425</t>
+  </si>
+  <si>
     <t>D4025</t>
   </si>
   <si>
@@ -1250,6 +1340,9 @@
     <t>M126</t>
   </si>
   <si>
+    <t>M426</t>
+  </si>
+  <si>
     <t>D4026</t>
   </si>
   <si>
@@ -1271,6 +1364,9 @@
     <t>M127</t>
   </si>
   <si>
+    <t>M427</t>
+  </si>
+  <si>
     <t>D4027</t>
   </si>
   <si>
@@ -1289,6 +1385,9 @@
     <t>M128</t>
   </si>
   <si>
+    <t>M428</t>
+  </si>
+  <si>
     <t>D4028</t>
   </si>
   <si>
@@ -1310,6 +1409,9 @@
     <t>M129</t>
   </si>
   <si>
+    <t>M429</t>
+  </si>
+  <si>
     <t>D4029</t>
   </si>
   <si>
@@ -1328,6 +1430,9 @@
     <t>M130</t>
   </si>
   <si>
+    <t>M430</t>
+  </si>
+  <si>
     <t>D4030</t>
   </si>
   <si>
@@ -1343,6 +1448,9 @@
     <t>D131</t>
   </si>
   <si>
+    <t>M431</t>
+  </si>
+  <si>
     <t>D4031</t>
   </si>
   <si>
@@ -1358,6 +1466,9 @@
     <t>D132</t>
   </si>
   <si>
+    <t>M432</t>
+  </si>
+  <si>
     <t>D4032</t>
   </si>
   <si>
@@ -1373,6 +1484,9 @@
     <t>D133</t>
   </si>
   <si>
+    <t>M433</t>
+  </si>
+  <si>
     <t>D4033</t>
   </si>
   <si>
@@ -1388,6 +1502,9 @@
     <t>D134</t>
   </si>
   <si>
+    <t>M434</t>
+  </si>
+  <si>
     <t>D4034</t>
   </si>
   <si>
@@ -1403,6 +1520,9 @@
     <t>D135</t>
   </si>
   <si>
+    <t>M435</t>
+  </si>
+  <si>
     <t>D4035</t>
   </si>
   <si>
@@ -1418,6 +1538,9 @@
     <t>D136</t>
   </si>
   <si>
+    <t>M436</t>
+  </si>
+  <si>
     <t>D4036</t>
   </si>
   <si>
@@ -1433,6 +1556,9 @@
     <t>D137</t>
   </si>
   <si>
+    <t>M437</t>
+  </si>
+  <si>
     <t>D4037</t>
   </si>
   <si>
@@ -1448,6 +1574,9 @@
     <t>D138</t>
   </si>
   <si>
+    <t>M438</t>
+  </si>
+  <si>
     <t>D4038</t>
   </si>
   <si>
@@ -1460,6 +1589,9 @@
     <t>D139</t>
   </si>
   <si>
+    <t>M439</t>
+  </si>
+  <si>
     <t>D4039</t>
   </si>
   <si>
@@ -1472,15 +1604,24 @@
     <t>D140</t>
   </si>
   <si>
+    <t>M440</t>
+  </si>
+  <si>
     <t>D4040</t>
   </si>
   <si>
+    <t>轴2调试位置</t>
+  </si>
+  <si>
     <t>M41</t>
   </si>
   <si>
     <t>D141</t>
   </si>
   <si>
+    <t>M441</t>
+  </si>
+  <si>
     <t>D4041</t>
   </si>
   <si>
@@ -1493,6 +1634,9 @@
     <t>D4042</t>
   </si>
   <si>
+    <t>轴3调试位置</t>
+  </si>
+  <si>
     <t>M43</t>
   </si>
   <si>
@@ -1511,6 +1655,9 @@
     <t>D4044</t>
   </si>
   <si>
+    <t>轴4调试位置</t>
+  </si>
+  <si>
     <t>M45</t>
   </si>
   <si>
@@ -1529,7 +1676,16 @@
     <t>轴9驱动完成</t>
   </si>
   <si>
+    <t>D4046</t>
+  </si>
+  <si>
+    <t>轴9调试位置</t>
+  </si>
+  <si>
     <t>M47</t>
+  </si>
+  <si>
+    <t>D4047</t>
   </si>
   <si>
     <t>M48</t>
@@ -1546,10 +1702,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1593,83 +1749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,9 +1780,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1714,8 +1794,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1726,6 +1821,67 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1750,7 +1906,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,43 +2050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,73 +2062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,43 +2086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,6 +2222,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2080,32 +2269,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2134,31 +2304,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2170,10 +2326,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2182,133 +2338,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4248,20 +4404,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:E20"/>
+  <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.8833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="8.88333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.775" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.625" style="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
@@ -4419,6 +4577,116 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.001</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="1">
+        <f>10000/360</f>
+        <v>27.7777777777778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="1">
+        <f>50/10000</f>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L35" s="1">
+        <v>6656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="1">
+        <f>360/10000</f>
+        <v>0.036</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13">
+      <c r="I37" s="1">
+        <f>90/3600</f>
+        <v>0.025</v>
+      </c>
+      <c r="L37" s="1">
+        <f>L35-L36</f>
+        <v>4983</v>
+      </c>
+      <c r="M37" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12">
+      <c r="L38" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13">
+      <c r="L39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M39" s="1">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4432,8 +4700,8 @@
   <sheetPr/>
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4445,7 +4713,7 @@
     <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="7.75" customWidth="1"/>
     <col min="10" max="10" width="21.25" customWidth="1"/>
     <col min="11" max="11" width="6.375" customWidth="1"/>
@@ -4455,946 +4723,1048 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
         <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="H4" t="s">
+        <v>234</v>
       </c>
       <c r="I4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
       </c>
       <c r="I5" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M5" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N5" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>256</v>
+      </c>
+      <c r="H6" t="s">
+        <v>257</v>
       </c>
       <c r="I6" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="K6" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M6" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="H7" t="s">
+        <v>269</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G8" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I8" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="J8" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K8" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M8" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9"/>
+        <v>287</v>
+      </c>
       <c r="G9" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I9" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="J9" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="K9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="I10" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="J10" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K10" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M10" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11"/>
+        <v>306</v>
+      </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K11" t="s">
-        <v>301</v>
+        <v>310</v>
+      </c>
+      <c r="L11" t="s">
+        <v>311</v>
       </c>
       <c r="M11" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>317</v>
+      </c>
+      <c r="J12" t="s">
+        <v>318</v>
       </c>
       <c r="K12" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="M12" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="D13" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
-        <v>315</v>
+        <v>326</v>
+      </c>
+      <c r="J13" t="s">
+        <v>327</v>
       </c>
       <c r="K13" t="s">
-        <v>316</v>
+        <v>328</v>
+      </c>
+      <c r="L13" t="s">
+        <v>329</v>
       </c>
       <c r="M13" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E14" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="G14" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="I14" t="s">
-        <v>323</v>
+        <v>336</v>
+      </c>
+      <c r="J14" t="s">
+        <v>337</v>
       </c>
       <c r="K14" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M14" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C15" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="G15" t="s">
-        <v>331</v>
+        <v>345</v>
+      </c>
+      <c r="I15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J15" t="s">
+        <v>347</v>
       </c>
       <c r="K15" t="s">
-        <v>332</v>
+        <v>348</v>
+      </c>
+      <c r="L15" t="s">
+        <v>349</v>
       </c>
       <c r="M15" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B16"/>
+        <v>351</v>
+      </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="E16" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="G16" t="s">
-        <v>337</v>
+        <v>354</v>
+      </c>
+      <c r="I16" t="s">
+        <v>355</v>
       </c>
       <c r="K16" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="M16" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17"/>
+        <v>358</v>
+      </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="G17" t="s">
-        <v>343</v>
+        <v>361</v>
+      </c>
+      <c r="I17" t="s">
+        <v>362</v>
       </c>
       <c r="K17" t="s">
-        <v>344</v>
+        <v>363</v>
+      </c>
+      <c r="L17" t="s">
+        <v>364</v>
       </c>
       <c r="M17" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>346</v>
-      </c>
-      <c r="B18"/>
+        <v>366</v>
+      </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="E18" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="G18" t="s">
-        <v>349</v>
+        <v>369</v>
+      </c>
+      <c r="I18" t="s">
+        <v>370</v>
       </c>
       <c r="K18" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="M18" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>352</v>
-      </c>
-      <c r="B19"/>
+        <v>373</v>
+      </c>
       <c r="C19" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="E19" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="G19" t="s">
-        <v>355</v>
+        <v>376</v>
+      </c>
+      <c r="I19" t="s">
+        <v>377</v>
       </c>
       <c r="K19" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="M19" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E20" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G20" t="s">
-        <v>362</v>
+        <v>384</v>
+      </c>
+      <c r="I20" t="s">
+        <v>385</v>
       </c>
       <c r="K20" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="M20" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="B21" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="E21" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="G21" t="s">
-        <v>369</v>
+        <v>392</v>
+      </c>
+      <c r="I21" t="s">
+        <v>393</v>
+      </c>
+      <c r="J21" t="s">
+        <v>394</v>
       </c>
       <c r="K21" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="L21" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="M21" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="E22" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="G22" t="s">
-        <v>376</v>
+        <v>401</v>
+      </c>
+      <c r="I22" t="s">
+        <v>402</v>
       </c>
       <c r="K22" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="M22" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="B23" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="E23" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="G23" t="s">
-        <v>382</v>
+        <v>408</v>
+      </c>
+      <c r="I23" t="s">
+        <v>409</v>
       </c>
       <c r="K23" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="L23" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="M23" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="B24" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="C24" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="G24" t="s">
-        <v>390</v>
+        <v>417</v>
+      </c>
+      <c r="I24" t="s">
+        <v>418</v>
       </c>
       <c r="K24" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="M24" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="B25" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="E25" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="G25" t="s">
-        <v>396</v>
+        <v>424</v>
+      </c>
+      <c r="I25" t="s">
+        <v>425</v>
       </c>
       <c r="K25" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="L25" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="M25" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="B26" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="C26" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="G26" t="s">
-        <v>403</v>
+        <v>432</v>
+      </c>
+      <c r="I26" t="s">
+        <v>433</v>
       </c>
       <c r="K26" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="M26" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="C27" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="G27" t="s">
-        <v>409</v>
+        <v>439</v>
+      </c>
+      <c r="I27" t="s">
+        <v>440</v>
       </c>
       <c r="K27" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="L27" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="M27" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="C28" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="E28" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="G28" t="s">
-        <v>416</v>
+        <v>447</v>
+      </c>
+      <c r="I28" t="s">
+        <v>448</v>
       </c>
       <c r="K28" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="M28" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C29" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="E29" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="G29" t="s">
-        <v>422</v>
+        <v>454</v>
+      </c>
+      <c r="I29" t="s">
+        <v>455</v>
       </c>
       <c r="K29" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="L29" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="M29" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="C30" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="E30" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="G30" t="s">
-        <v>429</v>
+        <v>462</v>
+      </c>
+      <c r="I30" t="s">
+        <v>463</v>
       </c>
       <c r="K30" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="M30" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="C31" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="E31" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="G31" t="s">
-        <v>435</v>
+        <v>469</v>
+      </c>
+      <c r="I31" t="s">
+        <v>470</v>
       </c>
       <c r="K31" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="M31" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="C32" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="E32" t="s">
-        <v>440</v>
+        <v>475</v>
+      </c>
+      <c r="I32" t="s">
+        <v>476</v>
       </c>
       <c r="K32" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="M32" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="E33" t="s">
-        <v>445</v>
+        <v>481</v>
+      </c>
+      <c r="I33" t="s">
+        <v>482</v>
       </c>
       <c r="K33" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="M33" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="E34" t="s">
-        <v>450</v>
+        <v>487</v>
+      </c>
+      <c r="I34" t="s">
+        <v>488</v>
       </c>
       <c r="K34" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="M34" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="C35" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="E35" t="s">
-        <v>455</v>
+        <v>493</v>
+      </c>
+      <c r="I35" t="s">
+        <v>494</v>
       </c>
       <c r="K35" t="s">
-        <v>456</v>
+        <v>495</v>
       </c>
       <c r="M35" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>458</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>459</v>
+        <v>498</v>
       </c>
       <c r="E36" t="s">
-        <v>460</v>
+        <v>499</v>
+      </c>
+      <c r="I36" t="s">
+        <v>500</v>
       </c>
       <c r="K36" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="M36" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="C37" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="E37" t="s">
-        <v>465</v>
+        <v>505</v>
+      </c>
+      <c r="I37" t="s">
+        <v>506</v>
       </c>
       <c r="K37" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="M37" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="O37">
         <f>68*4</f>
@@ -5403,156 +5773,189 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="C38" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="E38" t="s">
-        <v>470</v>
+        <v>511</v>
+      </c>
+      <c r="I38" t="s">
+        <v>512</v>
       </c>
       <c r="K38" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="M38" t="s">
-        <v>472</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="B39" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="E39" t="s">
-        <v>475</v>
+        <v>517</v>
+      </c>
+      <c r="I39" t="s">
+        <v>518</v>
       </c>
       <c r="K39" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="M39" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="B40" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="E40" t="s">
-        <v>479</v>
+        <v>522</v>
+      </c>
+      <c r="I40" t="s">
+        <v>523</v>
       </c>
       <c r="K40" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="M40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="B41" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="E41" t="s">
-        <v>483</v>
+        <v>527</v>
+      </c>
+      <c r="I41" t="s">
+        <v>528</v>
       </c>
       <c r="K41" t="s">
-        <v>484</v>
+        <v>529</v>
+      </c>
+      <c r="L41" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="E42" t="s">
-        <v>486</v>
+        <v>532</v>
+      </c>
+      <c r="I42" t="s">
+        <v>533</v>
       </c>
       <c r="K42" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="E43" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="K43" t="s">
-        <v>490</v>
+        <v>537</v>
+      </c>
+      <c r="L43" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="E44" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="K44" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="E45" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="K45" t="s">
-        <v>496</v>
+        <v>544</v>
+      </c>
+      <c r="L45" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="B46" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="E46" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="K46" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="B47" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>551</v>
+      </c>
+      <c r="K47" t="s">
+        <v>552</v>
+      </c>
+      <c r="L47" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>217</v>
+      </c>
+      <c r="K48" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>506</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/PLC/资料.xlsx
+++ b/PLC/资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="上料机IO表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="607">
   <si>
     <t>AVI设备_I/O表（PLC）</t>
   </si>
@@ -638,6 +638,12 @@
     <t>轴3零点位置</t>
   </si>
   <si>
+    <t>M3000</t>
+  </si>
+  <si>
+    <t>S0初始化流程</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -668,6 +674,12 @@
     <t>D4101</t>
   </si>
   <si>
+    <t>M3001</t>
+  </si>
+  <si>
+    <t>S10模式选择流程</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -707,6 +719,12 @@
     <t>轴4零点位置</t>
   </si>
   <si>
+    <t>M3002</t>
+  </si>
+  <si>
+    <t>S11运行流程</t>
+  </si>
+  <si>
     <t>M3</t>
   </si>
   <si>
@@ -737,6 +755,12 @@
     <t>D4103</t>
   </si>
   <si>
+    <t>M3003</t>
+  </si>
+  <si>
+    <t>S50调试流程</t>
+  </si>
+  <si>
     <t>M4</t>
   </si>
   <si>
@@ -779,6 +803,12 @@
     <t>轴9零点位置</t>
   </si>
   <si>
+    <t>M3004</t>
+  </si>
+  <si>
+    <t>S99急停流程</t>
+  </si>
+  <si>
     <t>M5</t>
   </si>
   <si>
@@ -806,6 +836,9 @@
     <t>D4105</t>
   </si>
   <si>
+    <t>M3005</t>
+  </si>
+  <si>
     <t>M6</t>
   </si>
   <si>
@@ -845,6 +878,12 @@
     <t>D4106</t>
   </si>
   <si>
+    <t>M3006</t>
+  </si>
+  <si>
+    <t>等待按“复位”按钮</t>
+  </si>
+  <si>
     <t>M7</t>
   </si>
   <si>
@@ -872,6 +911,9 @@
     <t>D4107</t>
   </si>
   <si>
+    <t>M3007</t>
+  </si>
+  <si>
     <t>M8</t>
   </si>
   <si>
@@ -899,6 +941,9 @@
     <t>D4108</t>
   </si>
   <si>
+    <t>M3008</t>
+  </si>
+  <si>
     <t>M9</t>
   </si>
   <si>
@@ -926,6 +971,9 @@
     <t>D4109</t>
   </si>
   <si>
+    <t>M3009</t>
+  </si>
+  <si>
     <t>M10</t>
   </si>
   <si>
@@ -959,6 +1007,9 @@
     <t>D4110</t>
   </si>
   <si>
+    <t>M3010</t>
+  </si>
+  <si>
     <t>M11</t>
   </si>
   <si>
@@ -983,6 +1034,9 @@
     <t>D4111</t>
   </si>
   <si>
+    <t>M3011</t>
+  </si>
+  <si>
     <t>M12</t>
   </si>
   <si>
@@ -1013,6 +1067,9 @@
     <t>D4112</t>
   </si>
   <si>
+    <t>M3012</t>
+  </si>
+  <si>
     <t>M13</t>
   </si>
   <si>
@@ -1040,6 +1097,9 @@
     <t>D4113</t>
   </si>
   <si>
+    <t>M3013</t>
+  </si>
+  <si>
     <t>M14</t>
   </si>
   <si>
@@ -1073,6 +1133,9 @@
     <t>D4114</t>
   </si>
   <si>
+    <t>M3014</t>
+  </si>
+  <si>
     <t>M15</t>
   </si>
   <si>
@@ -1094,6 +1157,9 @@
     <t>D4115</t>
   </si>
   <si>
+    <t>M3015</t>
+  </si>
+  <si>
     <t>M16</t>
   </si>
   <si>
@@ -1118,6 +1184,9 @@
     <t>D4116</t>
   </si>
   <si>
+    <t>M3016</t>
+  </si>
+  <si>
     <t>M17</t>
   </si>
   <si>
@@ -1139,6 +1208,9 @@
     <t>D4117</t>
   </si>
   <si>
+    <t>M3017</t>
+  </si>
+  <si>
     <t>M18</t>
   </si>
   <si>
@@ -1160,6 +1232,9 @@
     <t>D4118</t>
   </si>
   <si>
+    <t>M3018</t>
+  </si>
+  <si>
     <t>M19</t>
   </si>
   <si>
@@ -1184,6 +1259,9 @@
     <t>D4119</t>
   </si>
   <si>
+    <t>M3019</t>
+  </si>
+  <si>
     <t>M20</t>
   </si>
   <si>
@@ -1214,6 +1292,9 @@
     <t>D4120</t>
   </si>
   <si>
+    <t>M3020</t>
+  </si>
+  <si>
     <t>M21</t>
   </si>
   <si>
@@ -1235,6 +1316,9 @@
     <t>D4121</t>
   </si>
   <si>
+    <t>M3021</t>
+  </si>
+  <si>
     <t>M22</t>
   </si>
   <si>
@@ -1259,6 +1343,9 @@
     <t>D4122</t>
   </si>
   <si>
+    <t>M3022</t>
+  </si>
+  <si>
     <t>M23</t>
   </si>
   <si>
@@ -1283,6 +1370,9 @@
     <t>D4123</t>
   </si>
   <si>
+    <t>M3023</t>
+  </si>
+  <si>
     <t>M24</t>
   </si>
   <si>
@@ -1307,6 +1397,9 @@
     <t>D4124</t>
   </si>
   <si>
+    <t>M3024</t>
+  </si>
+  <si>
     <t>M25</t>
   </si>
   <si>
@@ -1328,6 +1421,9 @@
     <t>D4125</t>
   </si>
   <si>
+    <t>M3025</t>
+  </si>
+  <si>
     <t>M26</t>
   </si>
   <si>
@@ -1352,6 +1448,9 @@
     <t>D4126</t>
   </si>
   <si>
+    <t>M3026</t>
+  </si>
+  <si>
     <t>M27</t>
   </si>
   <si>
@@ -1373,6 +1472,9 @@
     <t>D4127</t>
   </si>
   <si>
+    <t>M3027</t>
+  </si>
+  <si>
     <t>M28</t>
   </si>
   <si>
@@ -1397,6 +1499,9 @@
     <t>D4128</t>
   </si>
   <si>
+    <t>M3028</t>
+  </si>
+  <si>
     <t>M29</t>
   </si>
   <si>
@@ -1418,6 +1523,9 @@
     <t>D4129</t>
   </si>
   <si>
+    <t>M3029</t>
+  </si>
+  <si>
     <t>M30</t>
   </si>
   <si>
@@ -1439,6 +1547,9 @@
     <t>D4130</t>
   </si>
   <si>
+    <t>M3030</t>
+  </si>
+  <si>
     <t>M31</t>
   </si>
   <si>
@@ -1457,6 +1568,9 @@
     <t>D4131</t>
   </si>
   <si>
+    <t>M3031</t>
+  </si>
+  <si>
     <t>M32</t>
   </si>
   <si>
@@ -1475,6 +1589,9 @@
     <t>D4132</t>
   </si>
   <si>
+    <t>M3032</t>
+  </si>
+  <si>
     <t>M33</t>
   </si>
   <si>
@@ -1493,6 +1610,9 @@
     <t>D4133</t>
   </si>
   <si>
+    <t>M3033</t>
+  </si>
+  <si>
     <t>M34</t>
   </si>
   <si>
@@ -1511,6 +1631,9 @@
     <t>D4134</t>
   </si>
   <si>
+    <t>M3034</t>
+  </si>
+  <si>
     <t>M35</t>
   </si>
   <si>
@@ -1529,6 +1652,9 @@
     <t>D4135</t>
   </si>
   <si>
+    <t>M3035</t>
+  </si>
+  <si>
     <t>M36</t>
   </si>
   <si>
@@ -1547,6 +1673,9 @@
     <t>D4136</t>
   </si>
   <si>
+    <t>M3036</t>
+  </si>
+  <si>
     <t>M37</t>
   </si>
   <si>
@@ -1565,6 +1694,9 @@
     <t>D4137</t>
   </si>
   <si>
+    <t>M3037</t>
+  </si>
+  <si>
     <t>M38</t>
   </si>
   <si>
@@ -1583,6 +1715,9 @@
     <t>D4138</t>
   </si>
   <si>
+    <t>M3038</t>
+  </si>
+  <si>
     <t>M39</t>
   </si>
   <si>
@@ -1598,6 +1733,9 @@
     <t>D4139</t>
   </si>
   <si>
+    <t>M3039</t>
+  </si>
+  <si>
     <t>M40</t>
   </si>
   <si>
@@ -1613,6 +1751,9 @@
     <t>轴2调试位置</t>
   </si>
   <si>
+    <t>M3040</t>
+  </si>
+  <si>
     <t>M41</t>
   </si>
   <si>
@@ -1623,6 +1764,9 @@
   </si>
   <si>
     <t>D4041</t>
+  </si>
+  <si>
+    <t>M3041</t>
   </si>
   <si>
     <t>M42</t>
@@ -1702,10 +1846,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1741,23 +1885,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1778,11 +1922,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1802,38 +1998,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1842,44 +2024,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1906,31 +2050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1942,49 +2068,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,7 +2110,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2014,31 +2212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2050,43 +2230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,35 +2365,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2271,11 +2391,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2294,30 +2462,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2326,10 +2470,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2338,133 +2482,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2953,25 +3097,25 @@
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.4416666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.88333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.4444444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.87962962962963" style="4" customWidth="1"/>
     <col min="3" max="3" width="5.66666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.8833333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.8796296296296" style="5" customWidth="1"/>
     <col min="5" max="5" width="5.33333333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="5.33333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.4416666666667" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.1083333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.44166666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.4416666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.4444444444444" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.1111111111111" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.44444444444444" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.4444444444444" style="3" customWidth="1"/>
     <col min="11" max="11" width="13.3333333333333" style="3" customWidth="1"/>
     <col min="12" max="12" width="28.3333333333333" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.88333333333333" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88333333333333" style="3"/>
+    <col min="13" max="13" width="8.87962962962963" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.87962962962963" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:7">
+    <row r="1" ht="20.4" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4406,19 +4550,19 @@
   <sheetPr/>
   <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="8.88333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.775" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.87962962962963" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="12.625" style="1"/>
+    <col min="10" max="10" width="12.6296296296296" style="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4698,30 +4842,32 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="1" max="1" width="4.37962962962963" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="4.37962962962963" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="5.37962962962963" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="5.37962962962963" customWidth="1"/>
+    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
     <col min="9" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="21.25" customWidth="1"/>
-    <col min="11" max="11" width="6.375" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="23.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="6.66666666666667" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="6.66666666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.1296296296296" customWidth="1"/>
+    <col min="16" max="16" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>193</v>
       </c>
@@ -4764,1198 +4910,1341 @@
       <c r="N1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="O1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="J2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M3" t="s">
+        <v>231</v>
+      </c>
+      <c r="N3" t="s">
+        <v>232</v>
+      </c>
+      <c r="O3" t="s">
+        <v>233</v>
+      </c>
+      <c r="P3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" t="s">
+        <v>256</v>
+      </c>
+      <c r="K5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" t="s">
+        <v>261</v>
+      </c>
+      <c r="P5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" t="s">
+        <v>270</v>
+      </c>
+      <c r="M6" t="s">
+        <v>271</v>
+      </c>
+      <c r="O6" t="s">
+        <v>272</v>
+      </c>
+      <c r="P6" t="s">
         <v>213</v>
       </c>
-      <c r="K2" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M7" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" t="s">
+        <v>292</v>
+      </c>
+      <c r="I8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M8" t="s">
+        <v>296</v>
+      </c>
+      <c r="O8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" t="s">
         <v>221</v>
       </c>
-      <c r="G3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" t="s">
-        <v>223</v>
-      </c>
-      <c r="J3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" t="s">
-        <v>225</v>
-      </c>
-      <c r="L3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M3" t="s">
-        <v>227</v>
-      </c>
-      <c r="N3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G5" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" t="s">
-        <v>248</v>
-      </c>
-      <c r="K5" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" t="s">
-        <v>250</v>
-      </c>
-      <c r="M5" t="s">
-        <v>251</v>
-      </c>
-      <c r="N5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" t="s">
-        <v>260</v>
-      </c>
-      <c r="M6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L7" t="s">
-        <v>273</v>
-      </c>
-      <c r="M7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I8" t="s">
-        <v>280</v>
-      </c>
-      <c r="J8" t="s">
-        <v>281</v>
-      </c>
-      <c r="K8" t="s">
-        <v>282</v>
-      </c>
-      <c r="M8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" t="s">
-        <v>217</v>
-      </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="G9" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="J9" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="K9" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>306</v>
+      </c>
+      <c r="O9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="J10" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K10" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>316</v>
+      </c>
+      <c r="O10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G11" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="J11" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="K11" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="L11" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="M11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>328</v>
+      </c>
+      <c r="O11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="I12" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="J12" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="K12" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="M12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>337</v>
+      </c>
+      <c r="O12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="J13" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="K13" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="L13" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="M13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>348</v>
+      </c>
+      <c r="O13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="G14" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="I14" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="J14" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="K14" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="M14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>358</v>
+      </c>
+      <c r="O14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="D15" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="I15" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="J15" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="K15" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="L15" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="M15" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>370</v>
+      </c>
+      <c r="O15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="C16" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="E16" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="G16" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="I16" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="K16" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="M16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>378</v>
+      </c>
+      <c r="O16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="I17" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="K17" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="L17" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="M17" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>387</v>
+      </c>
+      <c r="O17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C18" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="E18" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="G18" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="I18" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="K18" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="M18" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>395</v>
+      </c>
+      <c r="O18" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C19" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="I19" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="K19" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="M19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>403</v>
+      </c>
+      <c r="O19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C20" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="E20" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="I20" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="K20" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="M20" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>412</v>
+      </c>
+      <c r="O20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="E21" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="G21" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="I21" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="K21" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="L21" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="M21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>423</v>
+      </c>
+      <c r="O21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="B22" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="G22" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="I22" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="K22" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="M22" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>431</v>
+      </c>
+      <c r="O22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="B23" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C23" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="E23" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="G23" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="I23" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="K23" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="L23" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="M23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>440</v>
+      </c>
+      <c r="O23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="C24" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="E24" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="G24" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="I24" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="K24" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="M24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>449</v>
+      </c>
+      <c r="O24" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="B25" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="E25" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G25" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="I25" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="K25" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="L25" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="M25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>458</v>
+      </c>
+      <c r="O25" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="B26" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="C26" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="G26" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="I26" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="K26" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="M26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>466</v>
+      </c>
+      <c r="O26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="E27" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="G27" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="I27" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="K27" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="L27" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="M27" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>475</v>
+      </c>
+      <c r="O27" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="E28" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="G28" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="I28" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="K28" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="M28" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>483</v>
+      </c>
+      <c r="O28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="E29" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="G29" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="I29" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="K29" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="L29" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="M29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>492</v>
+      </c>
+      <c r="O29" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>494</v>
       </c>
       <c r="C30" t="s">
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G30" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="I30" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="K30" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="M30" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>500</v>
+      </c>
+      <c r="O30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="C31" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="E31" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="G31" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="I31" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="K31" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="M31" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>508</v>
+      </c>
+      <c r="O31" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="C32" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="E32" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="I32" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="K32" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="M32" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>515</v>
+      </c>
+      <c r="O32" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>518</v>
       </c>
       <c r="E33" t="s">
-        <v>481</v>
+        <v>519</v>
       </c>
       <c r="I33" t="s">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="K33" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="M33" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>522</v>
+      </c>
+      <c r="O33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>485</v>
+        <v>524</v>
       </c>
       <c r="C34" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="E34" t="s">
-        <v>487</v>
+        <v>526</v>
       </c>
       <c r="I34" t="s">
-        <v>488</v>
+        <v>527</v>
       </c>
       <c r="K34" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="M34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>529</v>
+      </c>
+      <c r="O34" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
       <c r="C35" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
       <c r="E35" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="I35" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
       <c r="K35" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
       <c r="M35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>536</v>
+      </c>
+      <c r="O35" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="E36" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="I36" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="K36" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="M36" t="s">
-        <v>502</v>
+        <v>543</v>
+      </c>
+      <c r="O36" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="C37" t="s">
-        <v>504</v>
+        <v>546</v>
       </c>
       <c r="E37" t="s">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="I37" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="K37" t="s">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="M37" t="s">
-        <v>508</v>
-      </c>
-      <c r="O37">
-        <f>68*4</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>550</v>
+      </c>
+      <c r="O37" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="C38" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="E38" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="I38" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="K38" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="M38" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>557</v>
+      </c>
+      <c r="O38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="B39" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="E39" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="I39" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="K39" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="M39" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>564</v>
+      </c>
+      <c r="O39" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
       <c r="B40" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="E40" t="s">
-        <v>522</v>
+        <v>567</v>
       </c>
       <c r="I40" t="s">
-        <v>523</v>
+        <v>568</v>
       </c>
       <c r="K40" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
       <c r="M40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>570</v>
+      </c>
+      <c r="O40" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="B41" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="E41" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="I41" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="K41" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="L41" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>576</v>
+      </c>
+      <c r="O41" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>531</v>
+        <v>578</v>
       </c>
       <c r="E42" t="s">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="I42" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="K42" t="s">
-        <v>534</v>
+        <v>581</v>
+      </c>
+      <c r="O42" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="E43" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
       <c r="K43" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="L43" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="E44" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="K44" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="E45" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="K45" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="L45" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="B46" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="E46" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="K46" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="B47" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="K47" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
       <c r="L47" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K48" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -5974,7 +6263,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5991,7 +6280,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/PLC/资料.xlsx
+++ b/PLC/资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740" activeTab="2"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="上料机IO表" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="608">
   <si>
     <t>AVI设备_I/O表（PLC）</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Y21</t>
+  </si>
+  <si>
+    <t>线扫触发</t>
   </si>
   <si>
     <t>X22</t>
@@ -1885,16 +1888,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1908,41 +1903,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1953,8 +1917,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1962,21 +1927,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2000,7 +1950,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2013,9 +1993,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2023,9 +2011,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2050,7 +2053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2062,7 +2065,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2074,13 +2173,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,97 +2221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,43 +2233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,6 +2378,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2389,11 +2407,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2427,38 +2460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2470,10 +2473,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2482,133 +2485,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3093,8 +3096,8 @@
   <sheetPr/>
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
@@ -3553,7 +3556,9 @@
       <c r="F20" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="25" t="s">
+        <v>76</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="36"/>
       <c r="J20" s="37"/>
@@ -3567,16 +3572,16 @@
         <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="13">
         <v>19</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="2"/>
@@ -3592,16 +3597,16 @@
         <v>20</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="13">
         <v>20</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="2"/>
@@ -3617,16 +3622,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13">
         <v>21</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="2"/>
@@ -3642,16 +3647,16 @@
         <v>22</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="13">
         <v>22</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="2"/>
@@ -3667,14 +3672,14 @@
         <v>23</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="13">
         <v>23</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="2"/>
@@ -3690,14 +3695,14 @@
         <v>24</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="13">
         <v>24</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="2"/>
@@ -3713,14 +3718,14 @@
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13">
         <v>25</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
@@ -3738,14 +3743,14 @@
         <v>26</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13">
         <v>26</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="2"/>
@@ -3763,14 +3768,14 @@
         <v>27</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13">
         <v>27</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="2"/>
@@ -4050,25 +4055,25 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B43" s="8">
         <v>41</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="31">
         <v>41</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="42"/>
@@ -4084,19 +4089,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E44" s="31">
         <v>42</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -4106,17 +4111,17 @@
         <v>43</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="31">
         <v>43</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H45" s="2"/>
       <c r="J45" s="37"/>
@@ -4127,14 +4132,14 @@
         <v>44</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="31">
         <v>44</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="2"/>
@@ -4146,19 +4151,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E47" s="31">
         <v>45</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H47" s="2"/>
       <c r="J47" s="37"/>
@@ -4169,19 +4174,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E48" s="31">
         <v>46</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J48" s="37"/>
     </row>
@@ -4191,17 +4196,17 @@
         <v>47</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="31">
         <v>47</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H49" s="2"/>
       <c r="J49" s="37"/>
@@ -4212,14 +4217,14 @@
         <v>48</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="31">
         <v>48</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="2"/>
@@ -4227,25 +4232,25 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="8">
         <v>41</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E51" s="31">
         <v>41</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4254,19 +4259,19 @@
         <v>42</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52" s="31">
         <v>42</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4275,17 +4280,17 @@
         <v>43</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="31">
         <v>43</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4294,14 +4299,14 @@
         <v>44</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="31">
         <v>44</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G54" s="12"/>
     </row>
@@ -4311,19 +4316,19 @@
         <v>45</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E55" s="31">
         <v>45</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4332,19 +4337,19 @@
         <v>46</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56" s="31">
         <v>46</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4353,17 +4358,17 @@
         <v>47</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="31">
         <v>47</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4372,38 +4377,38 @@
         <v>48</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="31">
         <v>48</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B59" s="8">
         <v>41</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" s="31">
         <v>41</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4412,16 +4417,16 @@
         <v>42</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E60" s="31">
         <v>42</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G60" s="18"/>
     </row>
@@ -4431,17 +4436,17 @@
         <v>43</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="31">
         <v>43</v>
       </c>
       <c r="F61" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4450,14 +4455,14 @@
         <v>44</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="31">
         <v>44</v>
       </c>
       <c r="F62" s="35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G62" s="12"/>
     </row>
@@ -4467,17 +4472,17 @@
         <v>45</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="31">
         <v>45</v>
       </c>
       <c r="F63" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4486,14 +4491,14 @@
         <v>46</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="31">
         <v>46</v>
       </c>
       <c r="F64" s="35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G64" s="16"/>
     </row>
@@ -4503,14 +4508,14 @@
         <v>47</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="31">
         <v>47</v>
       </c>
       <c r="F65" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G65" s="16"/>
     </row>
@@ -4520,14 +4525,14 @@
         <v>48</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="31">
         <v>48</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G66" s="16"/>
     </row>
@@ -4568,10 +4573,10 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -4579,10 +4584,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -4590,10 +4595,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -4601,10 +4606,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -4612,10 +4617,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -4623,10 +4628,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -4634,10 +4639,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -4645,16 +4650,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1">
         <v>0.01</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14" s="1">
         <f>B15/B14*B16/60</f>
@@ -4663,38 +4668,38 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1">
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1">
         <v>3000</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" s="1">
         <v>0.01</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18" s="1">
         <f>B19/B18*B20/60</f>
@@ -4703,40 +4708,40 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1">
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1">
         <v>3000</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B28" s="1">
         <v>0.001</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -4744,7 +4749,7 @@
         <v>1000</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J29" s="1">
         <f>10000/360</f>
@@ -4753,29 +4758,29 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" s="1">
         <v>0.005</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B33" s="1">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="5:5">
@@ -4786,7 +4791,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L35" s="1">
         <v>6656</v>
@@ -4794,14 +4799,14 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B36" s="1">
         <f>360/10000</f>
         <v>0.036</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L36" s="1">
         <v>1673</v>
@@ -4844,7 +4849,7 @@
   <sheetPr/>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -4869,1382 +4874,1382 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
         <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J12" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I14" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M17" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O17" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O20" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J21" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K21" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L21" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M21" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M22" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L23" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B24" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G24" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C25" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E25" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M25" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B26" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C26" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E26" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M26" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G27" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G28" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I28" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M28" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O28" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C29" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E29" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G29" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I29" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K29" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L29" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M29" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G30" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I30" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K30" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M30" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O30" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G31" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I31" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K31" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M31" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O31" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C32" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E32" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O32" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C33" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E33" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I33" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K33" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M33" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O33" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C34" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E34" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I34" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K34" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M34" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O34" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C35" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E35" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I35" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K35" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M35" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O35" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C36" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E36" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I36" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K36" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M36" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O36" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C37" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I37" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M37" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O37" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C38" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E38" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I38" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M38" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O38" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B39" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E39" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I39" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K39" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M39" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O39" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B40" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E40" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M40" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O40" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B41" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I41" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K41" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L41" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O41" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E42" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I42" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O42" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E43" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="K43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="L43" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E44" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K44" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E45" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K45" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L45" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B46" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E46" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K46" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B47" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="K47" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="L47" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K48" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/PLC/资料.xlsx
+++ b/PLC/资料.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\力德尔\研发\AVI\单轴线扫\PLC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA4FFDF-3977-4B20-9C89-53E092F1F5BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-130" yWindow="-130" windowWidth="24620" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上料机IO表" sheetId="4" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="610">
   <si>
     <t>AVI设备_I/O表（PLC）</t>
   </si>
@@ -1842,19 +1848,21 @@
   </si>
   <si>
     <t>M50</t>
+  </si>
+  <si>
+    <t>【上位机】触发2←</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>【上位机】触发响应2→</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1891,148 +1899,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2051,194 +1937,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2367,441 +2067,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3088,1016 +2508,1016 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.4444444444444" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.87962962962963" style="4" customWidth="1"/>
-    <col min="3" max="3" width="5.66666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.8796296296296" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.33333333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5.33333333333333" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.4444444444444" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.1111111111111" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.44444444444444" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.4444444444444" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.3333333333333" style="3" customWidth="1"/>
-    <col min="12" max="12" width="28.3333333333333" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.87962962962963" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.87962962962963" style="3"/>
+    <col min="1" max="1" width="14.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="5.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.36328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="28.36328125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
-      <c r="B4" s="8">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="15"/>
-      <c r="B5" s="8">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>3</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
-      <c r="B6" s="8">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>4</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="15"/>
-      <c r="B8" s="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>6</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>7</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="8">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="15"/>
-      <c r="B11" s="8">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>9</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="15"/>
-      <c r="B12" s="8">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="7">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="13">
+      <c r="D13" s="18"/>
+      <c r="E13" s="11">
         <v>11</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
         <v>12</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="7">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11">
         <v>13</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="19" t="s">
         <v>55</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="15"/>
-      <c r="B16" s="8">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="7">
         <v>14</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <v>14</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="8">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>15</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="20" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="15"/>
-      <c r="B18" s="8">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="7">
         <v>16</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <v>16</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>67</v>
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="15"/>
-      <c r="B19" s="8">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="7">
         <v>17</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>17</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="15"/>
-      <c r="B20" s="8">
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="7">
         <v>18</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <v>18</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="15"/>
-      <c r="B21" s="8">
+      <c r="H20" s="23"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="36"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="7">
         <v>19</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>19</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="15"/>
-      <c r="B22" s="8">
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="36"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="7">
         <v>20</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>20</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="15"/>
-      <c r="B23" s="8">
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="7">
         <v>21</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>21</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="15"/>
-      <c r="B24" s="8">
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="7">
         <v>22</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <v>22</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="15"/>
-      <c r="B25" s="8">
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="13">
+      <c r="D25" s="18"/>
+      <c r="E25" s="11">
         <v>23</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="40"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="15"/>
-      <c r="B26" s="8">
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="7">
         <v>24</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11">
         <v>24</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="40"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="8">
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="7">
         <v>25</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13">
+      <c r="D27" s="10"/>
+      <c r="E27" s="11">
         <v>25</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="42"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="8">
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="38"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="7">
         <v>26</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13">
+      <c r="D28" s="10"/>
+      <c r="E28" s="11">
         <v>26</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="42"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="8">
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="38"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="7">
         <v>27</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11">
         <v>27</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="42"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="8">
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="38"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="7">
         <v>28</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11">
         <v>28</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="42"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="8">
+      <c r="I30" s="32"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="38"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="7">
         <v>29</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11">
         <v>29</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="42"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="8">
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="38"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="7">
         <v>30</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11">
         <v>30</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="42"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="8">
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="38"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="7">
         <v>31</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11">
         <v>31</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="42"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="8">
+      <c r="I33" s="32"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="38"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="7">
         <v>32</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13">
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11">
         <v>32</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="42"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="8">
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="38"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="7">
         <v>33</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="13">
+      <c r="C35" s="9"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11">
         <v>33</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="16"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="42"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="8">
+      <c r="F35" s="9"/>
+      <c r="G35" s="13"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="38"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="7">
         <v>34</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="13">
+      <c r="C36" s="9"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11">
         <v>34</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="27"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="42"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="8">
+      <c r="F36" s="9"/>
+      <c r="G36" s="24"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="38"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="7">
         <v>35</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="13">
+      <c r="C37" s="9"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="11">
         <v>35</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="16"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="42"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="8">
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="38"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="7">
         <v>36</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="13">
+      <c r="C38" s="9"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="11">
         <v>36</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="16"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="42"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="8">
+      <c r="I38" s="32"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="38"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="7">
         <v>37</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="31">
+      <c r="C39" s="27"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="28">
         <v>37</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="42"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="8">
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="38"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="7">
         <v>38</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="31">
+      <c r="C40" s="27"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="28">
         <v>38</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="16"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="42"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="8">
+      <c r="F40" s="9"/>
+      <c r="G40" s="13"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="38"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="7">
         <v>39</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="31">
+      <c r="C41" s="27"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="28">
         <v>39</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="32"/>
-      <c r="I41" s="36"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="42"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="33"/>
-      <c r="B42" s="8">
+      <c r="F41" s="9"/>
+      <c r="G41" s="29"/>
+      <c r="I41" s="32"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="38"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="7">
         <v>40</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="31">
+      <c r="C42" s="27"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="28">
         <v>40</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="32"/>
-      <c r="I42" s="36"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="42"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="8" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="29"/>
+      <c r="I42" s="32"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="38"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>41</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="28">
         <v>41</v>
       </c>
-      <c r="F43" s="24" t="s">
+      <c r="F43" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="15" t="s">
         <v>103</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8">
+      <c r="I43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="B44" s="7">
         <v>42</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="28">
         <v>42</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="F44" s="21" t="s">
         <v>106</v>
       </c>
       <c r="G44" s="5" t="s">
@@ -4105,436 +3525,436 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="7">
         <v>43</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="31">
+      <c r="D45" s="10"/>
+      <c r="E45" s="28">
         <v>43</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="15" t="s">
         <v>110</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="J45" s="37"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8">
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="7">
         <v>44</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C46" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="31">
+      <c r="D46" s="10"/>
+      <c r="E46" s="28">
         <v>44</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G46" s="12"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="2"/>
-      <c r="J46" s="37"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8">
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="7">
         <v>45</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="28">
         <v>45</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="J47" s="37"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8">
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="7">
         <v>46</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="28">
         <v>46</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J48" s="37"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8">
+      <c r="J48" s="33"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="44"/>
+      <c r="B49" s="7">
         <v>47</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="31">
+      <c r="D49" s="10"/>
+      <c r="E49" s="28">
         <v>47</v>
       </c>
-      <c r="F49" s="24" t="s">
+      <c r="F49" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="J49" s="37"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8">
+      <c r="J49" s="33"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="44"/>
+      <c r="B50" s="7">
         <v>48</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="31">
+      <c r="D50" s="10"/>
+      <c r="E50" s="28">
         <v>48</v>
       </c>
-      <c r="F50" s="24" t="s">
+      <c r="F50" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="12"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="2"/>
-      <c r="J50" s="37"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="8" t="s">
+      <c r="J50" s="33"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>41</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="28">
         <v>41</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="44"/>
+      <c r="B52" s="7">
         <v>42</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <v>42</v>
       </c>
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="31" t="s">
         <v>132</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="44"/>
+      <c r="B53" s="7">
         <v>43</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="31">
+      <c r="D53" s="10"/>
+      <c r="E53" s="28">
         <v>43</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F53" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="44"/>
+      <c r="B54" s="7">
         <v>44</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="31">
+      <c r="D54" s="10"/>
+      <c r="E54" s="28">
         <v>44</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F54" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8">
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="44"/>
+      <c r="B55" s="7">
         <v>45</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="28">
         <v>45</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="44"/>
+      <c r="B56" s="7">
         <v>46</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="28">
         <v>46</v>
       </c>
-      <c r="F56" s="35" t="s">
+      <c r="F56" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="44"/>
+      <c r="B57" s="7">
         <v>47</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="31">
+      <c r="D57" s="10"/>
+      <c r="E57" s="28">
         <v>47</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F57" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="44"/>
+      <c r="B58" s="7">
         <v>48</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="31">
+      <c r="D58" s="10"/>
+      <c r="E58" s="28">
         <v>48</v>
       </c>
-      <c r="F58" s="35" t="s">
+      <c r="F58" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="8" t="s">
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>41</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="28">
         <v>41</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F59" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="44"/>
+      <c r="B60" s="7">
         <v>42</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="28">
         <v>42</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="F60" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8">
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="44"/>
+      <c r="B61" s="7">
         <v>43</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="31">
+      <c r="D61" s="10"/>
+      <c r="E61" s="28">
         <v>43</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F61" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="44"/>
+      <c r="B62" s="7">
         <v>44</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="31">
+      <c r="D62" s="10"/>
+      <c r="E62" s="28">
         <v>44</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F62" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8">
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="44"/>
+      <c r="B63" s="7">
         <v>45</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="31">
+      <c r="D63" s="10"/>
+      <c r="E63" s="28">
         <v>45</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F63" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="44"/>
+      <c r="B64" s="7">
         <v>46</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="31">
+      <c r="D64" s="10"/>
+      <c r="E64" s="28">
         <v>46</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F64" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8">
+      <c r="G64" s="13"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="44"/>
+      <c r="B65" s="7">
         <v>47</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="31">
+      <c r="D65" s="13"/>
+      <c r="E65" s="28">
         <v>47</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8">
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="44"/>
+      <c r="B66" s="7">
         <v>48</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="31">
+      <c r="D66" s="13"/>
+      <c r="E66" s="28">
         <v>48</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="G66" s="16"/>
+      <c r="G66" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4544,34 +3964,33 @@
     <mergeCell ref="A51:A58"/>
     <mergeCell ref="A59:A66"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.87962962962963" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8796296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="8.87962962962963" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="1" customWidth="1"/>
     <col min="6" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="12.6296296296296" style="1"/>
+    <col min="10" max="10" width="12.6328125" style="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>173</v>
       </c>
@@ -4582,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>175</v>
       </c>
@@ -4593,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>176</v>
       </c>
@@ -4604,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>178</v>
       </c>
@@ -4615,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>179</v>
       </c>
@@ -4626,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>181</v>
       </c>
@@ -4637,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>182</v>
       </c>
@@ -4648,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>183</v>
       </c>
@@ -4666,7 +4085,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>186</v>
       </c>
@@ -4677,7 +4096,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>187</v>
       </c>
@@ -4688,7 +4107,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>183</v>
       </c>
@@ -4706,7 +4125,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>186</v>
       </c>
@@ -4717,7 +4136,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>187</v>
       </c>
@@ -4728,23 +4147,23 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B28" s="1">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>1000</v>
       </c>
@@ -4753,26 +4172,26 @@
       </c>
       <c r="J29" s="1">
         <f>10000/360</f>
-        <v>27.7777777777778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>27.777777777777779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B32" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>186</v>
       </c>
@@ -4783,13 +4202,13 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
         <f>50/10000</f>
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>192</v>
       </c>
@@ -4797,13 +4216,13 @@
         <v>6656</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B36" s="1">
         <f>360/10000</f>
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>193</v>
@@ -4812,10 +4231,10 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="37" spans="9:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I37" s="1">
         <f>90/3600</f>
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L37" s="1">
         <f>L35-L36</f>
@@ -4825,12 +4244,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="12:12">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L38" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="12:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L39" s="1">
         <v>10000</v>
       </c>
@@ -4839,40 +4258,40 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.37962962962963" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="4.37962962962963" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="5.37962962962963" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="5.37962962962963" customWidth="1"/>
-    <col min="8" max="8" width="5.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="23.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="6.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="5.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" customWidth="1"/>
+    <col min="7" max="7" width="5.36328125" customWidth="1"/>
+    <col min="8" max="8" width="5.6328125" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="6.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="18.1296296296296" customWidth="1"/>
-    <col min="16" max="16" width="20.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="6.6328125" customWidth="1"/>
+    <col min="14" max="14" width="18.08984375" customWidth="1"/>
+    <col min="16" max="16" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>194</v>
       </c>
@@ -4922,7 +4341,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>209</v>
       </c>
@@ -4960,7 +4379,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -5007,7 +4426,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>236</v>
       </c>
@@ -5045,7 +4464,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>248</v>
       </c>
@@ -5095,7 +4514,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -5133,7 +4552,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>274</v>
       </c>
@@ -5180,7 +4599,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>289</v>
       </c>
@@ -5212,7 +4631,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -5247,7 +4666,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -5279,7 +4698,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>319</v>
       </c>
@@ -5317,7 +4736,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>331</v>
       </c>
@@ -5349,7 +4768,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>340</v>
       </c>
@@ -5384,7 +4803,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>351</v>
       </c>
@@ -5416,7 +4835,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>361</v>
       </c>
@@ -5454,7 +4873,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -5480,7 +4899,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>381</v>
       </c>
@@ -5509,7 +4928,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>390</v>
       </c>
@@ -5535,7 +4954,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>398</v>
       </c>
@@ -5561,7 +4980,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>406</v>
       </c>
@@ -5590,7 +5009,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>415</v>
       </c>
@@ -5625,7 +5044,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>426</v>
       </c>
@@ -5654,7 +5073,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>434</v>
       </c>
@@ -5686,7 +5105,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -5715,7 +5134,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>452</v>
       </c>
@@ -5747,7 +5166,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>461</v>
       </c>
@@ -5776,7 +5195,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>469</v>
       </c>
@@ -5805,7 +5224,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>478</v>
       </c>
@@ -5831,7 +5250,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>486</v>
       </c>
@@ -5860,7 +5279,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>495</v>
       </c>
@@ -5886,7 +5305,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>503</v>
       </c>
@@ -5912,7 +5331,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>511</v>
       </c>
@@ -5925,6 +5344,9 @@
       <c r="I32" t="s">
         <v>514</v>
       </c>
+      <c r="J32" s="45" t="s">
+        <v>608</v>
+      </c>
       <c r="K32" t="s">
         <v>515</v>
       </c>
@@ -5935,7 +5357,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>518</v>
       </c>
@@ -5948,6 +5370,9 @@
       <c r="I33" t="s">
         <v>521</v>
       </c>
+      <c r="J33" s="45" t="s">
+        <v>609</v>
+      </c>
       <c r="K33" t="s">
         <v>522</v>
       </c>
@@ -5958,7 +5383,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>525</v>
       </c>
@@ -5981,7 +5406,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>532</v>
       </c>
@@ -6004,7 +5429,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>539</v>
       </c>
@@ -6027,7 +5452,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>546</v>
       </c>
@@ -6050,7 +5475,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>553</v>
       </c>
@@ -6073,7 +5498,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>560</v>
       </c>
@@ -6096,7 +5521,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>567</v>
       </c>
@@ -6119,7 +5544,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>573</v>
       </c>
@@ -6142,7 +5567,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>579</v>
       </c>
@@ -6159,7 +5584,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>584</v>
       </c>
@@ -6173,7 +5598,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>588</v>
       </c>
@@ -6184,7 +5609,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>591</v>
       </c>
@@ -6198,7 +5623,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>595</v>
       </c>
@@ -6212,7 +5637,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>599</v>
       </c>
@@ -6226,7 +5651,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>603</v>
       </c>
@@ -6237,58 +5662,52 @@
         <v>604</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>607</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>